--- a/project/excel/data_sheets_schema.xlsx
+++ b/project/excel/data_sheets_schema.xlsx
@@ -8,8 +8,62 @@
   </bookViews>
   <sheets>
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Datasheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DatasheetCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DatasetProperty" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DatasetCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dataset" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Purpose" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Creator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Funder" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Instances" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Counts" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sampling" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Data" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Labels" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Missing" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Relationships" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Splits" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="DataAnomalies" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="ExternalResources" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Confidential" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="ContentWarning" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Subpopulations" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Deidentification" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="SensitiveData" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="InstanceAcquisition" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="CollectionMechanism" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="SamplingStrategy" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="WhoCollected" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="CollectionTimeframe" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="EthicalReview" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="DirectCollection" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="CollectionNotification" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="CollectionConsent" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="ConsentRevocation" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="DataProtectionImpact" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="PreprocessingCleaningLabeling" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="RawData" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="PreprocessingCleaningLabelingSoftware" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="ExistingUses" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="UseRepository" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="OtherTasks" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="FutureUseImpacts" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="DiscouragedUses" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="ThirdPartySharing" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="DistributionFormat" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="DistributionDate" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="LicenseAndUseTerms" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="IPRestrictions" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="ExportControlRegulatoryRestrictionss" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Maintainer" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="MaintainerContact" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Erratum" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Updates" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="RetentionLimits" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="VersionAccess" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="ExtensionMechanism" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="DataPackage" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="DataResource" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="FormatDialect" sheetId="57" state="visible" r:id="rId57"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,49 +499,890 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ia_sample</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>israndom</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>source_data</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_representative</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>representative_verification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>why_not_representative</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>why_missing</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>external_resources</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>future_guarantees</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>archival</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>warnings</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>entries</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>license</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -495,24 +1390,454 @@
           <t>description</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>conforms_to_schema</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>conforms_to_class</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>compression</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>test_roles</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
+    <dataValidation sqref="U2:U1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Example,CounterExample"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +1851,1270 @@
           <t>entries</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>media_type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>encoding</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>hash</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dialect</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>conforms_to_schema</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>conforms_to_class</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>compression</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>test_roles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"JSON-LD,N3,N-Triples,N-Quads,LD Patch,Microdata,OWL XML Serialization,OWL Functional Syntax,OWL Manchester Syntax,POWDER,POWDER-S,PROV-N,PROV-XML,RDFa,RDF/JSON,RDF/XML,RIF XML Syntax,SPARQL Results in XML,SPARQL Results in JSON,SPARQL Results in CSV,SPARQL Results in TSV,Turtle,TriG,YAML,JSON"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AC2:AC1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Example,CounterExample"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>addressing_gap</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>conforms_to_schema</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>conforms_to_class</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>compression</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>test_roles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Example,CounterExample"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>media_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>encoding</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>hash</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dialect</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>conforms_to_schema</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>conforms_to_class</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>compression</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>test_roles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"JSON-LD,N3,N-Triples,N-Quads,LD Patch,Microdata,OWL XML Serialization,OWL Functional Syntax,OWL Manchester Syntax,POWDER,POWDER-S,PROV-N,PROV-XML,RDFa,RDF/JSON,RDF/XML,RIF XML Syntax,SPARQL Results in XML,SPARQL Results in JSON,SPARQL Results in CSV,SPARQL Results in TSV,Turtle,TriG,YAML,JSON"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AB2:AB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Example,CounterExample"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>comment_prefix</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>delimiter</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>double_quote</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>quote_char</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>principal_investigator</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>grantor</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>grant_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>grant_number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>count_values</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/excel/data_sheets_schema.xlsx
+++ b/project/excel/data_sheets_schema.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Purpose" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Creator" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Funder" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Instances" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Instance" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Counts" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Sampling" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Data" sheetId="11" state="visible" r:id="rId11"/>
@@ -22,17 +22,17 @@
     <sheet name="Missing" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Relationships" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Splits" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="DataAnomalies" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="ExternalResources" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Confidential" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="DataAnomaly" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="ExternalResource" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Confidentiality" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="ContentWarning" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Subpopulations" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Subpopulation" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Deidentification" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="SensitiveData" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="SensitiveElement" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="InstanceAcquisition" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="CollectionMechanism" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="SamplingStrategy" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="WhoCollected" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="DataCollector" sheetId="26" state="visible" r:id="rId26"/>
     <sheet name="CollectionTimeframe" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="EthicalReview" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="DirectCollection" sheetId="29" state="visible" r:id="rId29"/>
@@ -43,21 +43,21 @@
     <sheet name="PreprocessingCleaningLabeling" sheetId="34" state="visible" r:id="rId34"/>
     <sheet name="RawData" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="PreprocessingCleaningLabelingSoftware" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="ExistingUses" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="ExistingUse" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="UseRepository" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="OtherTasks" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="FutureUseImpacts" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="DiscouragedUses" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="OtherTask" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="FutureUseImpact" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="DiscouragedUse" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="ThirdPartySharing" sheetId="42" state="visible" r:id="rId42"/>
     <sheet name="DistributionFormat" sheetId="43" state="visible" r:id="rId43"/>
     <sheet name="DistributionDate" sheetId="44" state="visible" r:id="rId44"/>
     <sheet name="LicenseAndUseTerms" sheetId="45" state="visible" r:id="rId45"/>
     <sheet name="IPRestrictions" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="ExportControlRegulatoryRestrictionss" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="ExportControlRegulatoryRestrictions" sheetId="47" state="visible" r:id="rId47"/>
     <sheet name="Maintainer" sheetId="48" state="visible" r:id="rId48"/>
     <sheet name="MaintainerContact" sheetId="49" state="visible" r:id="rId49"/>
     <sheet name="Erratum" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Updates" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="UpdatePlan" sheetId="51" state="visible" r:id="rId51"/>
     <sheet name="RetentionLimits" sheetId="52" state="visible" r:id="rId52"/>
     <sheet name="VersionAccess" sheetId="53" state="visible" r:id="rId53"/>
     <sheet name="ExtensionMechanism" sheetId="54" state="visible" r:id="rId54"/>
@@ -1837,156 +1837,326 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+  <dimension ref="A1:BK1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>purposes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>creators</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funders</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>instances</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>anomalies</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>external_resources</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>confidential_elements</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>content_warnings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>subpopulations</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>sensitive_elements</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>acquisition_methods</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>collection_mechanisms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>sampling_strategies</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>data_collectors</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>collection_timeframes</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ethical_reviews</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>data_protection_impacts</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>preprocessing_cleaning_labeling_methods</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>raw_sources</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>existing_uses</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>use_repository</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>other_tasks</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>future_use_impacts</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>discouraged_uses</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>distribution_formats</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>distribution_dates</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>license_and_use_terms</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>ip_restrictions</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>regulatory_restrictions</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>maintainers</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>errata</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>updates</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>retention_limit</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>version_access</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>extension_mechanism</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>path</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>media_type</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>encoding</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>bytes</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>hash</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>md5</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>sha256</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>dialect</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
         <is>
           <t>download_url</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>conforms_to</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>conforms_to_schema</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>conforms_to_class</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>publisher</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>keywords</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>issued</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>created_by</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>compression</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>was_derived_from</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>test_roles</t>
         </is>
@@ -1994,10 +2164,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AM2:AM1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"JSON-LD,N3,N-Triples,N-Quads,LD Patch,Microdata,OWL XML Serialization,OWL Functional Syntax,OWL Manchester Syntax,POWDER,POWDER-S,PROV-N,PROV-XML,RDFa,RDF/JSON,RDF/XML,RIF XML Syntax,SPARQL Results in XML,SPARQL Results in JSON,SPARQL Results in CSV,SPARQL Results in TSV,Turtle,TriG,YAML,JSON"</formula1>
     </dataValidation>
-    <dataValidation sqref="AC2:AC1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="BK2:BK1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Example,CounterExample"</formula1>
     </dataValidation>
   </dataValidations>

--- a/project/excel/data_sheets_schema.xlsx
+++ b/project/excel/data_sheets_schema.xlsx
@@ -11,63 +11,62 @@
     <sheet name="DataPackage" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="DataResource" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FormatDialect" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DatasetProperty" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DatasetCollection" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Dataset" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Purpose" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Task" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="AddressingGap" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Creator" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Funder" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Grantor" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Grant" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Instance" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Counts" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Sampling" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Data" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Labels" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Missing" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Relationships" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Splits" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="DataAnomaly" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="ExternalResource" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Confidentiality" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="ContentWarning" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Subpopulation" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Deidentification" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="SensitiveElement" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="InstanceAcquisition" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="CollectionMechanism" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="SamplingStrategy" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="DataCollector" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="CollectionTimeframe" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="EthicalReview" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="DirectCollection" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="CollectionNotification" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="CollectionConsent" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="ConsentRevocation" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="DataProtectionImpact" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="PreprocessingCleaningLabeling" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="RawData" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="PreprocessingCleaningLabelingSoftware" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="ExistingUse" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="UseRepository" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="OtherTask" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="FutureUseImpact" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="DiscouragedUse" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="ThirdPartySharing" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="DistributionFormat" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="DistributionDate" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="LicenseAndUseTerms" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="IPRestrictions" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="ExportControlRegulatoryRestrictions" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Maintainer" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="MaintainerContact" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Erratum" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="UpdatePlan" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="RetentionLimits" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="VersionAccess" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="ExtensionMechanism" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Person" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Organization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DatasetProperty" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="DatasetCollection" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Dataset" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Purpose" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Task" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="AddressingGap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Creator" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="FundingMechanism" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Grantor" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Grant" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Instance" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sampling" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Missing" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Relationships" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Splits" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="DataAnomaly" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="ExternalResource" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Confidentiality" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="ContentWarning" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Subpopulation" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Deidentification" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="SensitiveElement" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="InstanceAcquisition" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="CollectionMechanism" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="SamplingStrategy" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="DataCollector" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="CollectionTimeframe" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="EthicalReview" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="DirectCollection" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="CollectionNotification" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="CollectionConsent" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="ConsentRevocation" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="DataProtectionImpact" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="PreprocessingCleaningLabeling" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="RawData" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="PreprocessingCleaningLabelingSoftware" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="ExistingUse" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="UseRepository" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="OtherTask" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="FutureUseImpact" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="DiscouragedUse" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="ThirdPartySharing" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="DistributionFormat" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="DistributionDate" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="LicenseAndUseTerms" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="IPRestrictions" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="ExportControlRegulatoryRestrictions" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Maintainer" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="MaintainerContact" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Erratum" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="UpdatePlan" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="RetentionLimits" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="VersionAccess" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="ExtensionMechanism" sheetId="60" state="visible" r:id="rId60"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -550,6 +549,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -566,7 +647,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>institution</t>
+          <t>affiliation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -590,7 +671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -636,7 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -682,7 +763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -723,13 +804,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,204 +826,147 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
+          <t>instance_type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>data_type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>count_values</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
+          <t>counts</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ia_sample</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>israndom</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>source_data</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ia_sample</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>israndom</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>source_data</t>
+          <t>is_representative</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>representative_verification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>why_not_representative</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>why_missing</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>is_representative</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>representative_verification</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>why_not_representative</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1085,6 +1109,247 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>external_resources</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>future_guarantees</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>archival</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>warnings</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1096,12 +1361,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>missing</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>why_missing</t>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>distribution</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1125,285 +1390,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>external_resources</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>future_guarantees</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>archival</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>warnings</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>identification</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>distribution</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -2389,26 +2403,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
@@ -2425,26 +2444,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -2461,6 +2485,186 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2477,7 +2681,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>doi</t>
+          <t>email</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -2496,209 +2700,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>email</t>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ror_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wikidata_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -2711,121 +2879,90 @@
           <t>name</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2956,79 +3093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3380,86 +3445,4 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/data_sheets_schema.xlsx
+++ b/project/excel/data_sheets_schema.xlsx
@@ -16,28 +16,28 @@
     <sheet name="DatasetProperty" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="DatasetCollection" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Dataset" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Purpose" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Task" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="AddressingGap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Creator" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="FundingMechanism" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Grantor" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Grant" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Instance" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Sampling" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Missing" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Relationships" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Splits" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="DataAnomaly" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="ExternalResource" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Confidentiality" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="ContentWarning" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Subpopulation" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Deidentification" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="SensitiveElement" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="InstanceAcquisition" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="CollectionMechanism" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="SamplingStrategy" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="DataSubset" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Purpose" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Task" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="AddressingGap" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Creator" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="FundingMechanism" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Grantor" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Grant" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Instance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SamplingStrategy" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MissingInfo" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Relationships" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Splits" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="DataAnomaly" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="ExternalResource" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Confidentiality" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="ContentWarning" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Subpopulation" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Deidentification" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="SensitiveElement" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="InstanceAcquisition" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="CollectionMechanism" sheetId="31" state="visible" r:id="rId31"/>
     <sheet name="DataCollector" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="CollectionTimeframe" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="EthicalReview" sheetId="34" state="visible" r:id="rId34"/>
@@ -46,27 +46,29 @@
     <sheet name="CollectionConsent" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="ConsentRevocation" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="DataProtectionImpact" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="PreprocessingCleaningLabeling" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="RawData" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="PreprocessingCleaningLabelingSoftware" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="ExistingUse" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="UseRepository" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="OtherTask" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="FutureUseImpact" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="DiscouragedUse" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="ThirdPartySharing" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="DistributionFormat" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="DistributionDate" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="LicenseAndUseTerms" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="IPRestrictions" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="ExportControlRegulatoryRestrictions" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Maintainer" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="MaintainerContact" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="Erratum" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="UpdatePlan" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="RetentionLimits" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="VersionAccess" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="ExtensionMechanism" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="PreprocessingStrategy" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="CleaningStrategy" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="LabelingStrategy" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="RawData" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="PreprocessingCleaningLabelingSoftware" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="ExistingUse" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="UseRepository" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="OtherTask" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="FutureUseImpact" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="DiscouragedUse" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="ThirdPartySharing" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="DistributionFormat" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="DistributionDate" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="LicenseAndUseTerms" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="IPRestrictions" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="ExportControlRegulatoryRestrictions" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Maintainer" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="MaintainerContact" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Erratum" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="UpdatePlan" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="RetentionLimits" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="VersionAccess" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="ExtensionMechanism" sheetId="62" state="visible" r:id="rId62"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,6 +510,375 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:BP1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>purposes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>addressing_gaps</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creators</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>funders</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>instances</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>anomalies</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>external_resources</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>confidential_elements</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>content_warnings</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>subpopulations</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>sensitive_elements</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>acquisition_methods</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>collection_mechanisms</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sampling_strategies</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>data_collectors</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>collection_timeframes</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ethical_reviews</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>data_protection_impacts</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>preprocessing_strategies</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>cleaning_strategies</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>labeling_strategies</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>raw_sources</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>existing_uses</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>use_repository</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>other_tasks</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>future_use_impacts</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>discouraged_uses</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>distribution_formats</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>distribution_dates</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>license_and_use_terms</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>ip_restrictions</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>regulatory_restrictions</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>maintainers</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>errata</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>updates</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>retention_limit</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>version_access</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>extension_mechanism</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>is_deidentified</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>media_type</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>encoding</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>bytes</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>hash</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>md5</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>sha256</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>dialect</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>conforms_to_schema</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>conforms_to_class</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>compression</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>test_roles</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="AR2:AR1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"JSON-LD,N3,N-Triples,N-Quads,LD Patch,Microdata,OWL XML Serialization,OWL Functional Syntax,OWL Manchester Syntax,POWDER,POWDER-S,PROV-N,PROV-XML,RDFa,RDF/JSON,RDF/XML,RIF XML Syntax,SPARQL Results in XML,SPARQL Results in JSON,SPARQL Results in CSV,SPARQL Results in TSV,Turtle,TriG,YAML,JSON"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BP2:BP1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Example,CounterExample"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -543,7 +914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -584,7 +955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -625,7 +996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -671,7 +1042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -717,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -763,7 +1134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -804,13 +1175,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,32 +1217,42 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>sampling_strategies</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>missing_information</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,61 +1293,20 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>id</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>why_missing</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1109,6 +1449,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>missing</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>why_missing</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1139,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1175,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1211,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1267,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1303,7 +1689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1344,7 +1730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1382,42 +1768,6 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
         </is>
       </c>
     </row>
@@ -1673,6 +2023,62 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>was_directly_observed</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>was_reported_by_subjects</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>was_inferred_derived</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>was_validated_verified</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1703,7 +2109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1739,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +2181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1811,7 +2217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1847,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1883,7 +2289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1919,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1955,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1991,7 +2397,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>comment_prefix</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>delimiter</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>double_quote</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>header</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>quote_char</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2027,7 +2479,742 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2044,36 +3231,36 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment_prefix</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>delimiter</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>double_quote</t>
+          <t>ror_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wikidata_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>header</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>quote_char</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2109,7 +3296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2145,752 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>affiliation</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ror_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wikidata_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3099,7 +3541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3205,230 +3647,245 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>preprocessing_cleaning_labeling_methods</t>
+          <t>preprocessing_strategies</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>cleaning_strategies</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>labeling_strategies</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
           <t>raw_sources</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>existing_uses</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>use_repository</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>other_tasks</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>future_use_impacts</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>discouraged_uses</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>distribution_formats</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>distribution_dates</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>license_and_use_terms</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>ip_restrictions</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>regulatory_restrictions</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>maintainers</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>errata</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>updates</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>retention_limit</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>version_access</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>extension_mechanism</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>is_deidentified</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
         <is>
           <t>path</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>media_type</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>encoding</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>bytes</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>hash</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>md5</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>sha256</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>dialect</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
         <is>
           <t>download_url</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>conforms_to</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>conforms_to_schema</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>conforms_to_class</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>publisher</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>keywords</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>issued</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>created_by</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>created_on</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>compression</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>was_derived_from</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>test_roles</t>
         </is>
@@ -3436,10 +3893,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="AO2:AO1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AR2:AR1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"JSON-LD,N3,N-Triples,N-Quads,LD Patch,Microdata,OWL XML Serialization,OWL Functional Syntax,OWL Manchester Syntax,POWDER,POWDER-S,PROV-N,PROV-XML,RDFa,RDF/JSON,RDF/XML,RIF XML Syntax,SPARQL Results in XML,SPARQL Results in JSON,SPARQL Results in CSV,SPARQL Results in TSV,Turtle,TriG,YAML,JSON"</formula1>
     </dataValidation>
-    <dataValidation sqref="BM2:BM1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="BP2:BP1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Example,CounterExample"</formula1>
     </dataValidation>
   </dataValidations>

--- a/project/excel/data_sheets_schema.xlsx
+++ b/project/excel/data_sheets_schema.xlsx
@@ -1,73 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FormatDialect" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DatasetProperty" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="DatasetCollection" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Dataset" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DataSubset" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Software" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Purpose" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Task" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="AddressingGap" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Creator" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="FundingMechanism" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Grantor" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Grant" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Instance" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SamplingStrategy" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MissingInfo" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Relationships" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Splits" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="DataAnomaly" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="ExternalResource" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Confidentiality" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="ContentWarning" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Subpopulation" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Deidentification" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="SensitiveElement" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="InstanceAcquisition" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="CollectionMechanism" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="DataCollector" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="CollectionTimeframe" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="EthicalReview" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="DirectCollection" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="CollectionNotification" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="CollectionConsent" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="ConsentRevocation" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="DataProtectionImpact" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="PreprocessingStrategy" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="CleaningStrategy" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="LabelingStrategy" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="RawData" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="ExistingUse" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="UseRepository" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="OtherTask" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="FutureUseImpact" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="DiscouragedUse" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="ThirdPartySharing" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="DistributionFormat" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="DistributionDate" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="LicenseAndUseTerms" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="IPRestrictions" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="ExportControlRegulatoryRestrictions" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Maintainer" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Erratum" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="UpdatePlan" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="RetentionLimits" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="VersionAccess" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="ExtensionMechanism" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="Organization" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="OrganizationContainer" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="NamedThing" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="AnatomicalEntity" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FormatDialect" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DatasetProperty" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DatasetCollection" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dataset" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataSubset" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Software" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Purpose" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Task" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AddressingGap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Creator" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FundingMechanism" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grantor" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instance" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplingStrategy" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MissingInfo" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relationships" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Splits" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataAnomaly" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalResource" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Confidentiality" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ContentWarning" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subpopulation" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deidentification" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SensitiveElement" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InstanceAcquisition" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CollectionMechanism" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollector" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CollectionTimeframe" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EthicalReview" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DirectCollection" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CollectionNotification" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CollectionConsent" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConsentRevocation" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataProtectionImpact" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PreprocessingStrategy" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CleaningStrategy" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LabelingStrategy" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExistingUse" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UseRepository" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OtherTask" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FutureUseImpact" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscouragedUse" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ThirdPartySharing" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DistributionFormat" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DistributionDate" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LicenseAndUseTerms" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IPRestrictions" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExportControlRegulatoryRestrictions" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Maintainer" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Erratum" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UpdatePlan" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RetentionLimits" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VersionAccess" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExtensionMechanism" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organization" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OrganizationContainer" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnatomicalEntity" sheetId="62" state="visible" r:id="rId62"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,31 +485,127 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>comment_prefix</t>
+          <t>compression</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>delimiter</t>
+          <t>conforms_to</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>double_quote</t>
+          <t>conforms_to_class</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>header</t>
+          <t>conforms_to_schema</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>quote_char</t>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>last_updated_on</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>modified_by</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"GZIP,TAR,TARGZIP,ZIP"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Person,Organization"</formula1>
+    </dataValidation>
+    <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Person,Organization"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -600,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,65 +708,60 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>principal_investigator</t>
+          <t>response</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>affiliation</t>
+          <t>used_software</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>used_software</t>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>category</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>subclass_of</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>subclass_of</t>
+          <t>related_to</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>related_to</t>
+          <t>contributor_name</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>contributor_name</t>
+          <t>contributor_github_name</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>contributor_github_name</t>
+          <t>contributor_orcid</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>contribution_date</t>
         </is>
@@ -697,12 +789,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>grantor</t>
+          <t>principal_investigator</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>affiliation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -783,47 +875,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ror_id</t>
+          <t>grantor</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>wikidata_id</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>used_software</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>related_to</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -853,6 +945,92 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ror_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wikidata_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -928,7 +1106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1044,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1155,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1231,82 +1409,6 @@
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
         <is>
           <t>contribution_date</t>
         </is>
@@ -1399,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,62 +1512,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>affiliation</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>comment_prefix</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>delimiter</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>double_quote</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>header</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
+          <t>quote_char</t>
         </is>
       </c>
     </row>
@@ -1556,6 +1628,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1646,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1727,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +1961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1894,87 +2042,6 @@
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>identifiable_elements_present</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
         <is>
           <t>contribution_date</t>
         </is>
@@ -2002,7 +2069,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sensitive_elements_present</t>
+          <t>identifiable_elements_present</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2067,6 +2134,87 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sensitive_elements_present</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2152,82 +2300,6 @@
         </is>
       </c>
       <c r="O1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
         <is>
           <t>contribution_date</t>
         </is>
@@ -2320,7 +2392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,55 +2403,60 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>used_software</t>
+          <t>affiliation</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>subclass_of</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>related_to</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>contributor_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>contributor_github_name</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>contributor_orcid</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>contribution_date</t>
         </is>
@@ -3156,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3167,132 +3244,61 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>used_software</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>compression</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>conforms_to</t>
+          <t>category</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>conforms_to_class</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>conforms_to_schema</t>
+          <t>description</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>created_by</t>
+          <t>subclass_of</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>created_on</t>
+          <t>related_to</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>contributor_name</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>doi</t>
+          <t>contributor_github_name</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>download_url</t>
+          <t>contributor_orcid</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>issued</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>last_updated_on</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>modified_by</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>publisher</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>was_derived_from</t>
+          <t>contribution_date</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"GZIP,TAR,TARGZIP,ZIP"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Person,Organization"</formula1>
-    </dataValidation>
-    <dataValidation sqref="Q2:Q1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Person,Organization"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4058,6 +4064,928 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>compression</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>conforms_to</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>conforms_to_class</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>conforms_to_schema</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>created_on</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>download_url</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>issued</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>last_updated_on</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>modified_by</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>was_derived_from</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"GZIP,TAR,TARGZIP,ZIP"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Person,Organization"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q2:Q1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Person,Organization"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Person,Organization"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>used_software</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ror_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>wikidata_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4460,706 +5388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Person,Organization"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ror_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>wikidata_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5185,7 +5414,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subclass_of</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>related_to</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>contributor_name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>contributor_github_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>contributor_orcid</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>contribution_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5598,149 +5969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5816,87 +6045,6 @@
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>contribution_date</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>used_software</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>subclass_of</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>related_to</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>contributor_name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>contributor_github_name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>contributor_orcid</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
         <is>
           <t>contribution_date</t>
         </is>
